--- a/assets/campaña.xlsx
+++ b/assets/campaña.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F347F66-38ED-4442-BE13-3C6A73A7A214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD720F-A745-40D2-9F9C-4AAAEFF7190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nombre</t>
   </si>
@@ -44,10 +44,19 @@
     <t>Gustavo</t>
   </si>
   <si>
-    <t>montoCredito</t>
-  </si>
-  <si>
     <t>telefono</t>
+  </si>
+  <si>
+    <t>blitz110</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>gustavo</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1318A958-C3E1-42A4-89DB-AF881F24FE26}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,29 +441,35 @@
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5491161405589</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>350000</v>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
